--- a/Funções Básicas E Produtividade/2 - SOMA.xlsx
+++ b/Funções Básicas E Produtividade/2 - SOMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Funções Básicas E Produtividade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E4FF87-822E-4880-ACF2-5BDB75780E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBCBD00-E807-4D2C-B51A-234B160AFE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C24DDA09-2B43-4F95-8A32-5946E06EFA25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24DDA09-2B43-4F95-8A32-5946E06EFA25}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Produto A</t>
   </si>
@@ -67,11 +67,6 @@
   </si>
   <si>
     <t>Total (Alternativa 2)</t>
-  </si>
-  <si>
-    <t>JÁ OUVIU FALAR DE REFERÊNCIAS 3D?
-FIQUE ATENTO NA DICA "OCULTA" DA AULA
-#PRODUTIVIDADE</t>
   </si>
   <si>
     <t>O atalho Alt  + = possibilita chamar a função soma automaticamente na tabela</t>
@@ -90,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,21 +111,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,8 +123,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,20 +175,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -222,10 +220,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,38 +241,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -282,24 +254,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Ênfase2" xfId="1" builtinId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB55DB7-4A61-4906-8BE8-5E2F777776CC}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,181 +619,162 @@
     <col min="2" max="7" width="12.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="16">
         <v>4808</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="16">
         <v>1466</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>1881</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>2924</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="17">
         <f>SUM(C3:F3)</f>
         <v>11079</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="16">
         <v>3092</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="16">
         <v>3130</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>1710</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <v>1457</v>
       </c>
-      <c r="G4" s="14">
-        <f t="shared" ref="G4:G6" si="0">SUM(C4:F4)</f>
+      <c r="G4" s="17">
+        <f t="shared" ref="G4:G7" si="0">SUM(C4:F4)</f>
         <v>9389</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="16">
         <v>1351</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="16">
         <v>4175</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>3757</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>2615</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
         <v>11898</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="16">
         <v>1061</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="16">
         <v>4774</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>4942</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="16">
         <v>2189</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="17">
         <f t="shared" si="0"/>
         <v>12966</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="19">
         <f>SUM(C3:C6)</f>
         <v>10312</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(D3:D6)</f>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7:F7" si="1">SUM(D3:D6)</f>
         <v>13545</v>
       </c>
-      <c r="E7" s="16">
-        <f>SUM(E3:E6)</f>
+      <c r="E7" s="19">
+        <f t="shared" si="1"/>
         <v>12290</v>
       </c>
-      <c r="F7" s="16">
-        <f>SUM(F3:F6)</f>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
         <v>9185</v>
       </c>
       <c r="G7" s="17">
-        <f>SUM(C7:F7)</f>
+        <f t="shared" si="0"/>
         <v>45332</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="13" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="13" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:G14"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -811,10 +782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFFB83-0265-427F-A4B0-E6296CC135DF}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,19 +818,19 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="14">
         <v>4841</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="14">
         <v>4102</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="14">
         <v>4813</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="14">
         <v>1166</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>SUM(C3:F3)</f>
         <v>14922</v>
       </c>
@@ -868,20 +839,20 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="14">
         <v>1535</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="14">
         <v>1236</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="14">
         <v>3514</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="14">
         <v>2418</v>
       </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G6" si="0">SUM(C4:F4)</f>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G7" si="0">SUM(C4:F4)</f>
         <v>8703</v>
       </c>
     </row>
@@ -889,19 +860,19 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="14">
         <v>4052</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="14">
         <v>3089</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="14">
         <v>4880</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="14">
         <v>4140</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>16161</v>
       </c>
@@ -910,19 +881,19 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="14">
         <v>2809</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="14">
         <v>4898</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
         <v>1478</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="14">
         <v>1026</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>10211</v>
       </c>
@@ -931,23 +902,38 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="C7" s="14">
+        <f>SUM(C3:C6)</f>
+        <v>13237</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" ref="D7:F7" si="1">SUM(D3:D6)</f>
+        <v>13325</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="1"/>
+        <v>14685</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="1"/>
+        <v>8750</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>49997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -956,10 +942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274FDF6E-52FE-4D3A-AB89-CF85FC598B23}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,19 +978,19 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="13">
         <v>3169</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="13">
         <v>2255</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="13">
         <v>3888</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="13">
         <v>1730</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>SUM(C3:F3)</f>
         <v>11042</v>
       </c>
@@ -1013,20 +999,20 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="13">
         <v>4121</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="13">
         <v>3237</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="13">
         <v>3485</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="13">
         <v>3181</v>
       </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G6" si="0">SUM(C4:F4)</f>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G7" si="0">SUM(C4:F4)</f>
         <v>14024</v>
       </c>
     </row>
@@ -1034,19 +1020,19 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="13">
         <v>4533</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="13">
         <v>2257</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="13">
         <v>4348</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="13">
         <v>3230</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>14368</v>
       </c>
@@ -1055,19 +1041,19 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="13">
         <v>3488</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="13">
         <v>3596</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="13">
         <v>3934</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="13">
         <v>1592</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>12610</v>
       </c>
@@ -1076,23 +1062,38 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="C7" s="13">
+        <f>SUM(C3:C6)</f>
+        <v>15311</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" ref="D7:F7" si="1">SUM(D3:D6)</f>
+        <v>11345</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>15655</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="1"/>
+        <v>9733</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>52044</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1103,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861DCE38-41DB-4395-AE7E-A754D714A451}">
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1126,77 +1127,77 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>SUM(JAN!G3,FEV!G3,MAR!G3)</f>
         <v>37043</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="12">
         <f>SUM(JAN:MAR!G3)</f>
         <v>37043</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f>SUM(JAN!G4,FEV!G4,MAR!G4)</f>
         <v>32116</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="12">
         <f>SUM(JAN:MAR!G4)</f>
         <v>32116</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f>SUM(JAN!G5,FEV!G5,MAR!G5)</f>
         <v>42427</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="12">
         <f>SUM(JAN:MAR!G5)</f>
         <v>42427</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>SUM(JAN!G6,FEV!G6,MAR!G6)</f>
         <v>35787</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="12">
         <f>SUM(JAN:MAR!G6)</f>
         <v>35787</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
